--- a/src/sys-web/src/main/resources/res/userExample.xlsx
+++ b/src/sys-web/src/main/resources/res/userExample.xlsx
@@ -1,75 +1,459 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="用户表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>用户模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户昵称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户登录名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户所属机构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+  <si>
+    <t>用户表</t>
+  </si>
+  <si>
+    <t>姓名（必填）</t>
+  </si>
+  <si>
+    <t>登录账号（必填）</t>
+  </si>
+  <si>
+    <t>组织机构名称（必填）</t>
+  </si>
+  <si>
+    <t>邮箱（非必填）</t>
+  </si>
+  <si>
+    <t>手机号（非必填）</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>zs</t>
+  </si>
+  <si>
+    <t>组织机构</t>
+  </si>
+  <si>
+    <t>12345678901@qq.com</t>
+  </si>
+  <si>
+    <t>李四</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t>12345678902@qq.com</t>
+  </si>
+  <si>
+    <t>王五</t>
+  </si>
+  <si>
+    <t>ww</t>
+  </si>
+  <si>
+    <t>赵六</t>
+  </si>
+  <si>
+    <t>zl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -77,25 +461,333 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -105,7 +797,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -115,39 +807,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,192 +918,175 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="18.75" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="18.75" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -421,43 +1096,80 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+    <row r="3" ht="15" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>12345678901</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>12345678902</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="12345678901@qq.com"/>
+    <hyperlink ref="D4" r:id="rId2" display="12345678902@qq.com" tooltip="mailto:12345678902@qq.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>